--- a/CoreRulebook/Data/illusion.xlsx
+++ b/CoreRulebook/Data/illusion.xlsx
@@ -558,7 +558,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Legilimency  \\ {\it  </t>
+      <t xml:space="preserve">Relive Memory  \\ {\it  </t>
     </r>
     <r>
       <rPr>
@@ -584,7 +584,7 @@
     <t xml:space="preserve">EMP \\ (understand other)</t>
   </si>
   <si>
-    <t xml:space="preserve">Target performs a resist magic check (with 1 penalty per power point dedicated to the spell), if it fails, the caster gets to peer inside their mind, and know their deepest secrets,  or even alter memories. </t>
+    <t xml:space="preserve">Target performs a resist magic check (with 1 penalty per power point dedicated to the spell), if it fails, the caster forces the target to relive a specific memory, which they may also view. </t>
   </si>
   <si>
     <r>
@@ -826,12 +826,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -903,10 +903,10 @@
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="C15" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
-      <selection pane="topRight" activeCell="G21" activeCellId="0" sqref="G21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B12" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topRight" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/CoreRulebook/Data/illusion.xlsx
+++ b/CoreRulebook/Data/illusion.xlsx
@@ -95,7 +95,7 @@
     <t xml:space="preserve">Cast your voice such that it appears to be coming from somewhere up to 5+$\times PP$ metres away.</t>
   </si>
   <si>
-    <t xml:space="preserve">Blind \\ {\it caecus}</t>
+    <t xml:space="preserve">Blinding Light\\ {\it caecus}</t>
   </si>
   <si>
     <t xml:space="preserve">2: Novice</t>
@@ -104,7 +104,7 @@
     <t xml:space="preserve">POW</t>
   </si>
   <si>
-    <t xml:space="preserve">If target fails a SPR(Perception) check, they are blinded for 4 turns. </t>
+    <t xml:space="preserve">Direct a brilliant beam of light at the target. If target fails an INT(Perception) Resist check, they are blinded for 4 turns. </t>
   </si>
   <si>
     <t xml:space="preserve">Calming Charm  \\ {\it  paxus}
@@ -156,7 +156,7 @@
     <t xml:space="preserve">Sleeping Charm \\ {\it somnus}</t>
   </si>
   <si>
-    <t xml:space="preserve">If target fails a resist magic check, they enter into a deep slumber for (5 + 2 $\times$ PP) turns</t>
+    <t xml:space="preserve">If target fails a SPR(Endurance) resist magic check, they enter into a deep slumber for (5 + 2 $\times$ PP) turns</t>
   </si>
   <si>
     <t xml:space="preserve">Chameleon Charm  \\ {\it  dissimulo}</t>
@@ -411,7 +411,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G29" activeCellId="0" sqref="G29"/>
+      <selection pane="bottomRight" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/CoreRulebook/Data/illusion.xlsx
+++ b/CoreRulebook/Data/illusion.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="138">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t xml:space="preserve">Effect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HigherLevel</t>
   </si>
   <si>
     <t xml:space="preserve">Blur</t>
@@ -71,6 +74,9 @@
 Gain check advantage on evasion checks for 3 turns.</t>
   </si>
   <si>
+    <t xml:space="preserve">When cast by an adept-level caster, the first attack directed at the target also automatically misses. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Chaotic Whispers</t>
   </si>
   <si>
@@ -92,6 +98,74 @@
     <t xml:space="preserve">Target hears a voice in their ear whispering maddening words, that slowly drive them insane. Target takes (1 + PP)d4  psychic damage per turn, unless they pass a SPR(endurance) Resist check against the casting check, at which point the spell is broken.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">At 7</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, 15</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and 18</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> level, use a d6, d10 and d12 respectively for the damage check.</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Charm Entity</t>
   </si>
   <si>
@@ -116,7 +190,37 @@
     <t xml:space="preserve">INT</t>
   </si>
   <si>
-    <t xml:space="preserve"> Create a superficial glamour around a person, a simple trick of the light. The glamour disintegrates upon physical or magical contact. </t>
+    <t xml:space="preserve"> Create a superficial glamour around a person or object, a simple trick of the light. The glamour disintegrates upon physical or magical contact, and can be seen to be fake if an observer passes an INT(perception) Resist check, DV=5.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">When cast by a character greater than 8</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> level, the DV of the check is equal to the caster level. </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Imbue Bravery</t>
@@ -210,14 +314,17 @@
     <t xml:space="preserve">Piper{\apos}s Illusion</t>
   </si>
   <si>
-    <t xml:space="preserve">Ritual (2 turns)</t>
+    <t xml:space="preserve">Ritual (5 turns)</t>
   </si>
   <si>
     <t xml:space="preserve">Performance</t>
   </si>
   <si>
-    <t xml:space="preserve">If one has an instrument, this spell hypnotises all those who hear it and fail SPR (willpower) Resist check. When the spell ends, all entranced targets take (1+PP)d10 psychic damage)
-This spell is not blocked by non-specialist wards or shields. Takes 2 turns to cast. </t>
+    <t xml:space="preserve">This spell is performed by playing an instrument and layering it with magic. All those who hear ithe song are hypnotised if they fail a SPR (willpower) Resist check against the casting check. Hyponotised individuals cannot take any actions. When the spell ends, all entranced targets take (1+PP)d10 psychic damage.
+This spell is not blocked by non-specialist wards or shields.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When cast by an Expert-level caster, ritual only takes 2 turns to complete. </t>
   </si>
   <si>
     <t xml:space="preserve">Sleep</t>
@@ -242,8 +349,75 @@
   </si>
   <si>
     <t xml:space="preserve">Multiple phantasms attack the target, doing (1+PP)d4 psychic damage for every turn that the phantasms are active. 
-Once the original spell hits the targets, phantasms exist only within the target{\apos}s mind, and may pass through all shields and defences. 
-Phantasms are active for (3+PP) turns</t>
+Once the original spell hits the targets, phantasms exist only within the target{\apos}s mind, and so are not stopped by shields or wards (except antimagic wards).</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">At 9</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, 14</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and 18</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> level, use a d6, d8 and d12 dice for the damage check respectively.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Beguiling Totem</t>
@@ -268,7 +442,37 @@
   </si>
   <si>
     <t xml:space="preserve">Causes the target to take on the exact colour and texture of the background, making them hard to spot when stationary. 
-Concealment checks get a + 4 bonus when stationary, and + 1 when moving. </t>
+Stealth checks get a + (4+PP) bonus when stationary, and + (1+PP) when moving. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">When cast by a character greater than 8</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> level, the caster may add free PP points equal to one quarter of the caster level. </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">False Friend</t>
@@ -409,8 +613,47 @@
     <t xml:space="preserve">10 hours</t>
   </si>
   <si>
-    <t xml:space="preserve">Create a perfect illusion of an environment (up to 20m in radius) or people (up to 3), which can be interacted with by the target. Illusions can only have the knowledge that the caster has.
+    <t xml:space="preserve">Create a perfect illusion of an environment (up to 20m in radius) or people (up to 3), which can be interacted with and touched by the target. Illusions can only have the knowledge that the caster has.
 Illusion lasts for 10 hours.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illusory Construction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create an illusion, a construction of light. Illusion is silent and non-corporeal, but does not disintegrate on contact. Illusion may be manipulated and moved by the caster whilst concentration is maintained. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">When cast by a character greater than 14</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> level, illusion no longer must be silent. </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -420,7 +663,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -443,6 +686,13 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -506,12 +756,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -539,23 +789,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="H14" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D30" activeCellId="0" sqref="D30"/>
+      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="32.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.42"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="93.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="60.9"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="11" style="1" width="11.57"/>
   </cols>
   <sheetData>
@@ -587,22 +837,25 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>1</v>
@@ -611,27 +864,30 @@
         <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1" t="n">
         <v>3</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="25.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>1</v>
@@ -640,30 +896,33 @@
         <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I3" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>22</v>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>1</v>
@@ -672,30 +931,30 @@
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I4" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="25.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>1</v>
@@ -704,30 +963,33 @@
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="17.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>1</v>
@@ -736,30 +998,30 @@
         <v>2</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I6" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J6" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="17.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>1</v>
@@ -768,27 +1030,27 @@
         <v>3</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I7" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J7" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="17.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>0</v>
@@ -800,27 +1062,27 @@
         <v>4</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I8" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J8" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="17.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>0</v>
@@ -832,24 +1094,24 @@
         <v>5</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I9" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J9" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="17.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>0</v>
@@ -861,30 +1123,30 @@
         <v>8</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I10" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>51</v>
+      <c r="J10" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>2</v>
@@ -893,30 +1155,30 @@
         <v>6</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I11" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>55</v>
+      <c r="J11" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>2</v>
@@ -925,24 +1187,24 @@
         <v>5</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I12" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J12" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="42.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>0</v>
@@ -954,30 +1216,33 @@
         <v>6</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I13" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>68</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="17.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>2</v>
@@ -986,27 +1251,27 @@
         <v>5</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J14" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="34.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>2</v>
@@ -1015,27 +1280,30 @@
         <v>7</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I15" s="1" t="n">
         <v>6</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>77</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="42.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>3</v>
@@ -1044,27 +1312,27 @@
         <v>6</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I16" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J16" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="25.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>0</v>
@@ -1076,30 +1344,33 @@
         <v>7</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I17" s="1" t="n">
         <v>8</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="25.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>3</v>
@@ -1108,30 +1379,30 @@
         <v>6</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I18" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J18" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="25.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E19" s="1" t="n">
         <v>3</v>
@@ -1140,30 +1411,30 @@
         <v>8</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I19" s="1" t="n">
         <v>8</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="25.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E20" s="1" t="n">
         <v>3</v>
@@ -1172,27 +1443,27 @@
         <v>12</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="I20" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="17.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>0</v>
@@ -1204,30 +1475,30 @@
         <v>8</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I21" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J21" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="25.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>3</v>
@@ -1236,30 +1507,30 @@
         <v>8</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I22" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J22" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="25.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E23" s="1" t="n">
         <v>4</v>
@@ -1268,30 +1539,30 @@
         <v>9</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I23" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J23" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="25.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E24" s="1" t="n">
         <v>4</v>
@@ -1300,24 +1571,24 @@
         <v>10</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="I24" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J24" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="17.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D25" s="1" t="n">
         <v>0</v>
@@ -1329,30 +1600,30 @@
         <v>10</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="I25" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>112</v>
+      <c r="J25" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E26" s="1" t="n">
         <v>5</v>
@@ -1361,30 +1632,30 @@
         <v>15</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I26" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>115</v>
+      <c r="J26" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E27" s="1" t="n">
         <v>5</v>
@@ -1393,27 +1664,27 @@
         <v>15</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I27" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J27" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="25.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>0</v>
@@ -1425,27 +1696,27 @@
         <v>12</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" s="1" t="n">
         <v>16</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="34.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E29" s="1" t="n">
         <v>5</v>
@@ -1454,16 +1725,51 @@
         <v>15</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I29" s="1" t="n">
         <v>14</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="25.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/CoreRulebook/Data/illusion.xlsx
+++ b/CoreRulebook/Data/illusion.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="171">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -208,79 +208,82 @@
     <t xml:space="preserve">lux stultium</t>
   </si>
   <si>
+    <t xml:space="preserve">FIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INT (perception)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Create a superficial glamour around a person or object, a simple trick of the light. The glamour disintegrates upon physical or magical contact, and can be seen to be fake if observer succeeds on a Resist check. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">When cast by a character greater than 8</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> level, the DV of the Resist check is equal to the caster level. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Imbue Bravery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fortudus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golden rays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imbue your target with fortitude and vigour. They gain check-advantage on all Fear-Resist checks for 1 hour. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Night Vision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aspectu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perception</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Give the target nightvision for one hour: dim light is as bright as daylight, and darkness is consdiered dim. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Throw Voice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ventrilofors</t>
+  </si>
+  <si>
     <t xml:space="preserve">INT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INT (perception)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Create a superficial glamour around a person or object, a simple trick of the light. The glamour disintegrates upon physical or magical contact, and can be seen to be fake if observer succeeds on a Resist check. </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">When cast by a character greater than 8</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">th</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> level, the DV of the Resist check is equal to the caster level. </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Imbue Bravery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fortudus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golden rays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imbue your target with fortitude and vigour. They gain check-advantage on all Fear-Resist checks for 1 hour. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Night Vision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aspectu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perception</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Give the target nightvision for one hour: dim light is as bright as daylight, and darkness is consdiered dim. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Throw Voice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ventrilofors</t>
   </si>
   <si>
     <t xml:space="preserve">Cast your voice such that it appears to be coming from somewhere up to 5+$\times PP$ metres away.</t>
@@ -311,9 +314,6 @@
     <t xml:space="preserve">Golden mist</t>
   </si>
   <si>
-    <t xml:space="preserve">Willpower</t>
-  </si>
-  <si>
     <t xml:space="preserve">Calms the target down. Remove terrified status from target.</t>
   </si>
   <si>
@@ -464,6 +464,9 @@
     <t xml:space="preserve">(1+PP) days</t>
   </si>
   <si>
+    <t xml:space="preserve">Willpower</t>
+  </si>
+  <si>
     <t xml:space="preserve">EMP (perception)</t>
   </si>
   <si>
@@ -585,9 +588,6 @@
     <t xml:space="preserve">1 day</t>
   </si>
   <si>
-    <t xml:space="preserve">Endurance</t>
-  </si>
-  <si>
     <t xml:space="preserve">Set up barriers around your mind to defend yourself. 
 Legilimency will not work on you, and all other mind-altering spells take a casting penalty equal to one third of your total level.</t>
   </si>
@@ -698,6 +698,9 @@
     <t xml:space="preserve">10 hours</t>
   </si>
   <si>
+    <t xml:space="preserve">Precision</t>
+  </si>
+  <si>
     <t xml:space="preserve">Create a perfect illusion of an environment (up to 20m in radius) or people (up to 3), which can be interacted with and touched by the target. Illusions can only have the knowledge that the caster has.
 Illusion lasts for 10 hours. An observer may determine that the illusion is not real  by performing a Resist as a major action. </t>
   </si>
@@ -748,6 +751,33 @@
   </si>
   <si>
     <t xml:space="preserve">You produce an illusion not out of light, but in the mind of the target. If the target fails to resist, they see in their mind whatever the caster wishes, and react accordingly. No actual HP or FP is removed by the illusions, but the character acts as if they have. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hypnotic Lights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fascum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multicoloured Orbs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 minute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multicoloured, iridiescent orbs dance in the sky, fascinating up to 1d4 creatures that see them, if they have INT &lt; 8. These creatures cannot remove their gaze from the orbs, and will stop all other actions for the duration of the hypnotism. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suppress Intelligence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">romanes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">By touching your wand-tip to the head of the target, reduce their INT attribute by (2+PP) points for the duration of the spell. </t>
   </si>
 </sst>
 </file>
@@ -850,12 +880,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -886,24 +916,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G18" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="I14" activeCellId="0" sqref="I14"/>
+      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+      <selection pane="bottomRight" activeCell="K30" activeCellId="0" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="32.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.8"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="5" style="1" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.42"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="11.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="11.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="11.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="60.85"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="14" style="1" width="11.57"/>
   </cols>
@@ -1191,7 +1223,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>27</v>
@@ -1200,21 +1232,21 @@
         <v>2</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>0</v>
@@ -1226,7 +1258,7 @@
         <v>5</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J9" s="1" t="n">
         <v>5</v>
@@ -1238,21 +1270,21 @@
         <v>29</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>0</v>
@@ -1265,9 +1297,6 @@
       </c>
       <c r="H10" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="J10" s="1" t="n">
         <v>6</v>
@@ -1296,7 +1325,7 @@
         <v>6</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>27</v>
@@ -1477,27 +1506,27 @@
         <v>18</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="J16" s="1" t="n">
         <v>6</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>29</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>23</v>
@@ -1515,24 +1544,24 @@
         <v>18</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J17" s="1" t="n">
         <v>8</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>16</v>
@@ -1541,7 +1570,7 @@
         <v>34</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F18" s="1" t="n">
         <v>3</v>
@@ -1562,24 +1591,24 @@
         <v>41</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F19" s="1" t="n">
         <v>3</v>
@@ -1591,36 +1620,36 @@
         <v>18</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="J19" s="1" t="n">
         <v>8</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>29</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F20" s="1" t="n">
         <v>3</v>
@@ -1630,9 +1659,6 @@
       </c>
       <c r="H20" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="J20" s="1" t="n">
         <v>10</v>
@@ -1956,10 +1982,10 @@
         <v>15</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="J29" s="1" t="n">
         <v>14</v>
@@ -1971,15 +1997,15 @@
         <v>18</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>23</v>
@@ -1994,10 +2020,10 @@
         <v>5</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="J30" s="1" t="n">
         <v>7</v>
@@ -2009,22 +2035,25 @@
         <v>14</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="E31" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="F31" s="1" t="n">
         <v>4</v>
       </c>
@@ -2041,13 +2070,92 @@
         <v>8</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J32" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J33" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
